--- a/biology/Botanique/Michel_Rolland/Michel_Rolland.xlsx
+++ b/biology/Botanique/Michel_Rolland/Michel_Rolland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Rolland, né le 24 décembre 1947 à Libourne, en France est un œnologue français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Rolland, né le 24 décembre 1947 à Libourne, en France est un œnologue français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Très présent dans le monde du vin de Bordeaux, et plus particulièrement à Pomerol, Michel Rolland est également très médiatique. Il possède plusieurs domaines dans le Bordelais, mais aussi des liens commerciaux avec des producteurs de vin à travers le monde.
 Il apparaît dans le film Mondovino du réalisateur américain Jonathan Nossiter, où il est présenté et dénoncé comme un des grands régisseurs de la standardisation des vins, autant économique que culturelle, avec une évolution vers un standard de goût international. Le film met en évidence ses liens avec Robert Mondavi et le journaliste Robert Parker.
